--- a/单词.xlsx
+++ b/单词.xlsx
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>认识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>intention</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>interdenpendence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>import</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,10 +230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>unbringing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>preserve</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -747,6 +735,18 @@
   </si>
   <si>
     <t>entertaining</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interdependence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upbringing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -754,7 +754,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -802,6 +802,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -840,7 +848,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -854,6 +862,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1150,18 +1161,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D180"/>
+  <dimension ref="A1:D286"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97:A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.5">
@@ -1175,903 +1186,2000 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="D2" t="s">
+    <row r="3" spans="1:4" ht="18.75">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="C3" t="s">
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.75">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="18.75">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="C5" t="s">
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" ht="18.75">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="18.75">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="C8" t="s">
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" ht="18.75">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" ht="18.75">
+      <c r="A10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" ht="18.75">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" ht="18.75">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="C9" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" ht="18.75">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" ht="18.75">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" ht="18.75">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" ht="18.75">
+      <c r="A16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" ht="18.75">
+      <c r="A17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" ht="18.75">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" ht="18.75">
+      <c r="A19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" ht="18.75">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" ht="18.75">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.75">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" ht="18.75">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18.75">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" ht="18.75">
+      <c r="A25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" ht="18.75">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" ht="18.75">
+      <c r="B27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" ht="18.75">
+      <c r="A28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" ht="18.75">
+      <c r="A29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" ht="18.75">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" ht="18.75">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" ht="18.75">
+      <c r="A32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" ht="18.75">
+      <c r="A33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" ht="18.75">
+      <c r="A34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" ht="18.75">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" ht="18.75">
+      <c r="A36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" ht="18.75">
+      <c r="A37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" ht="18.75">
+      <c r="A38" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" ht="18.75">
+      <c r="A39" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" ht="18.75">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18.75">
+      <c r="A41" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" ht="18.75">
+      <c r="A42" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4" ht="18.75">
+      <c r="A43" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4" ht="18.75">
+      <c r="A44" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" ht="18.75">
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18.75">
+      <c r="A46" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" ht="18.75">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="18.75">
+      <c r="B48" s="5"/>
+      <c r="C48" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="18.75">
+      <c r="A49" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="1:4" ht="18.75">
+      <c r="B50" s="5"/>
+      <c r="C50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="1:4" ht="18.75">
+      <c r="C51" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="1:4" ht="18.75">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="1:4" ht="18.75">
+      <c r="C53" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:4" ht="18.75">
+      <c r="B54" s="5"/>
+      <c r="C54" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="1:4" ht="18.75">
+      <c r="C55" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="1:4" ht="18.75">
+      <c r="B56" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="1:4" ht="18.75">
+      <c r="A57" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="1:4" ht="18.75">
+      <c r="C58" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="1:4" ht="18.75">
+      <c r="B59" s="5"/>
+      <c r="C59" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="1:4" ht="18.75">
+      <c r="B60" s="5"/>
+      <c r="C60" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="1:4" ht="18.75">
+      <c r="B61" s="5"/>
+      <c r="C61" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="1:4" ht="18.75">
+      <c r="B62" s="5"/>
+      <c r="C62" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="1:4" ht="18.75">
+      <c r="A63" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64" spans="1:4" ht="18.75">
+      <c r="B64" s="5"/>
+      <c r="C64" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" spans="1:4" ht="18.75">
+      <c r="B65" s="5"/>
+      <c r="C65" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="1:4" ht="18.75">
+      <c r="B66" s="5"/>
+      <c r="C66" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="1:4" ht="18.75">
+      <c r="B67" s="5"/>
+      <c r="C67" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="1:4" ht="18.75">
+      <c r="A68" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="1:4" ht="18.75">
+      <c r="A69" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" spans="1:4" ht="18.75">
+      <c r="A70" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+    </row>
+    <row r="71" spans="1:4" ht="18.75">
+      <c r="A71" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+    </row>
+    <row r="72" spans="1:4" ht="18.75">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+    </row>
+    <row r="73" spans="1:4" ht="18.75">
+      <c r="B73" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+    </row>
+    <row r="74" spans="1:4" ht="18.75">
+      <c r="B74" s="5"/>
+      <c r="C74" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="1:4" ht="18.75">
+      <c r="B75" s="5"/>
+      <c r="C75" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" s="5"/>
+    </row>
+    <row r="76" spans="1:4" ht="18.75">
+      <c r="B76" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+    </row>
+    <row r="77" spans="1:4" ht="18.75">
+      <c r="B77" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+    </row>
+    <row r="78" spans="1:4" ht="18.75">
+      <c r="B78" s="5"/>
+      <c r="C78" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D78" s="5"/>
+    </row>
+    <row r="79" spans="1:4" ht="18.75">
+      <c r="A79" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+    </row>
+    <row r="80" spans="1:4" ht="18.75">
+      <c r="B80" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+    </row>
+    <row r="81" spans="1:4" ht="18.75">
+      <c r="B81" s="5"/>
+      <c r="C81" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D81" s="5"/>
+    </row>
+    <row r="82" spans="1:4" ht="18.75">
+      <c r="B82" s="5"/>
+      <c r="C82" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D82" s="5"/>
+    </row>
+    <row r="83" spans="1:4" ht="18.75">
+      <c r="A83" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+    </row>
+    <row r="84" spans="1:4" ht="18.75">
+      <c r="A84" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+    </row>
+    <row r="85" spans="1:4" ht="18.75">
+      <c r="A85" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+    </row>
+    <row r="86" spans="1:4" ht="18.75">
+      <c r="B86" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+    </row>
+    <row r="87" spans="1:4" ht="18.75">
+      <c r="B87" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+    </row>
+    <row r="88" spans="1:4" ht="18.75">
+      <c r="A88" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+    </row>
+    <row r="89" spans="1:4" ht="18.75">
+      <c r="A89" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+    </row>
+    <row r="90" spans="1:4" ht="18.75">
+      <c r="B90" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+    </row>
+    <row r="91" spans="1:4" ht="18.75">
+      <c r="B91" s="5"/>
+      <c r="C91" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D91" s="5"/>
+    </row>
+    <row r="92" spans="1:4" ht="18.75">
+      <c r="A92" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+    </row>
+    <row r="93" spans="1:4" ht="18.75">
+      <c r="B93" s="5" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+    </row>
+    <row r="94" spans="1:4" ht="18.75">
+      <c r="A94" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+    </row>
+    <row r="95" spans="1:4" ht="18.75">
+      <c r="B95" s="5"/>
+      <c r="C95" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
+      <c r="D95" s="5"/>
+    </row>
+    <row r="96" spans="1:4" ht="18.75">
+      <c r="B96" s="5"/>
+      <c r="C96" s="5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
+      <c r="D96" s="5"/>
+    </row>
+    <row r="97" spans="1:4" ht="18.75">
+      <c r="A97" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+    </row>
+    <row r="98" spans="1:4" ht="18.75">
+      <c r="A98" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+    </row>
+    <row r="99" spans="1:4" ht="18.75">
+      <c r="A99" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+    </row>
+    <row r="100" spans="1:4" ht="18.75">
+      <c r="B100" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+    </row>
+    <row r="101" spans="1:4" ht="18.75">
+      <c r="A101" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+    </row>
+    <row r="102" spans="1:4" ht="18.75">
+      <c r="A102" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+    </row>
+    <row r="103" spans="1:4" ht="18.75">
+      <c r="A103" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+    </row>
+    <row r="104" spans="1:4" ht="18.75">
+      <c r="A104" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+    </row>
+    <row r="105" spans="1:4" ht="18.75">
+      <c r="A105" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+    </row>
+    <row r="106" spans="1:4" ht="18.75">
+      <c r="A106" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+    </row>
+    <row r="107" spans="1:4" ht="18.75">
+      <c r="A107" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+    </row>
+    <row r="108" spans="1:4" ht="18.75">
+      <c r="A108" s="5" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+    </row>
+    <row r="109" spans="1:4" ht="18.75">
+      <c r="A109" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+    </row>
+    <row r="110" spans="1:4" ht="18.75">
+      <c r="A110" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+    </row>
+    <row r="111" spans="1:4" ht="18.75">
+      <c r="B111" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+    </row>
+    <row r="112" spans="1:4" ht="18.75">
+      <c r="B112" s="5" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+    </row>
+    <row r="113" spans="1:4" ht="18.75">
+      <c r="A113" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+    </row>
+    <row r="114" spans="1:4" ht="18.75">
+      <c r="A114" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+    </row>
+    <row r="115" spans="1:4" ht="18.75">
+      <c r="B115" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+    </row>
+    <row r="116" spans="1:4" ht="18.75">
+      <c r="A116" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+    </row>
+    <row r="117" spans="1:4" ht="18.75">
+      <c r="B117" s="5"/>
+      <c r="C117" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
+      <c r="D117" s="5"/>
+    </row>
+    <row r="118" spans="1:4" ht="18.75">
+      <c r="B118" s="5"/>
+      <c r="C118" s="5" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
+      <c r="D118" s="5"/>
+    </row>
+    <row r="119" spans="1:4" ht="18.75">
+      <c r="A119" s="5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+    </row>
+    <row r="120" spans="1:4" ht="18.75">
+      <c r="A120" s="5" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+    </row>
+    <row r="121" spans="1:4" ht="18.75">
+      <c r="A121" s="5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+    </row>
+    <row r="122" spans="1:4" ht="18.75">
+      <c r="A122" s="5" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+    </row>
+    <row r="123" spans="1:4" ht="18.75">
+      <c r="A123" s="5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+    </row>
+    <row r="124" spans="1:4" ht="18.75">
+      <c r="A124" s="5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+    </row>
+    <row r="125" spans="1:4" ht="18.75">
+      <c r="B125" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+    </row>
+    <row r="126" spans="1:4" ht="18.75">
+      <c r="A126" s="5" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+    </row>
+    <row r="127" spans="1:4" ht="18.75">
+      <c r="B127" s="5" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+    </row>
+    <row r="128" spans="1:4" ht="18.75">
+      <c r="B128" s="5"/>
+      <c r="C128" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
+      <c r="D128" s="5"/>
+    </row>
+    <row r="129" spans="1:4" ht="18.75">
+      <c r="A129" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+    </row>
+    <row r="130" spans="1:4" ht="18.75">
+      <c r="A130" s="5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+    </row>
+    <row r="131" spans="1:4" ht="18.75">
+      <c r="A131" s="5" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+    </row>
+    <row r="132" spans="1:4" ht="18.75">
+      <c r="A132" s="5" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+    </row>
+    <row r="133" spans="1:4" ht="18.75">
+      <c r="A133" s="5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+    </row>
+    <row r="134" spans="1:4" ht="18.75">
+      <c r="A134" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+    </row>
+    <row r="135" spans="1:4" ht="18.75">
+      <c r="A135" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+    </row>
+    <row r="136" spans="1:4" ht="18.75">
+      <c r="A136" s="5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+    </row>
+    <row r="137" spans="1:4" ht="18.75">
+      <c r="A137" s="5" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+    </row>
+    <row r="138" spans="1:4" ht="18.75">
+      <c r="B138" s="5"/>
+      <c r="C138" s="5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
+      <c r="D138" s="5"/>
+    </row>
+    <row r="139" spans="1:4" ht="18.75">
+      <c r="A139" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+    </row>
+    <row r="140" spans="1:4" ht="18.75">
+      <c r="B140" s="5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+    </row>
+    <row r="141" spans="1:4" ht="18.75">
+      <c r="B141" s="5"/>
+      <c r="C141" s="5" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
+      <c r="D141" s="5"/>
+    </row>
+    <row r="142" spans="1:4" ht="18.75">
+      <c r="A142" s="5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+    </row>
+    <row r="143" spans="1:4" ht="18.75">
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
+    <row r="144" spans="1:4" ht="18.75">
+      <c r="A144" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+    </row>
+    <row r="145" spans="1:4" ht="18.75">
+      <c r="B145" s="5"/>
+      <c r="C145" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
+      <c r="D145" s="5"/>
+    </row>
+    <row r="146" spans="1:4" ht="18.75">
+      <c r="A146" s="5" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+    </row>
+    <row r="147" spans="1:4" ht="18.75">
+      <c r="B147" s="5" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+    </row>
+    <row r="148" spans="1:4" ht="18.75">
+      <c r="A148" s="5" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+    </row>
+    <row r="149" spans="1:4" ht="18.75">
+      <c r="A149" s="5" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+    </row>
+    <row r="150" spans="1:4" ht="18.75">
+      <c r="B150" s="5"/>
+      <c r="C150" s="5" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
+      <c r="D150" s="5"/>
+    </row>
+    <row r="151" spans="1:4" ht="18.75">
+      <c r="A151" s="5" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+    </row>
+    <row r="152" spans="1:4" ht="18.75">
+      <c r="A152" s="5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+    </row>
+    <row r="153" spans="1:4" ht="18.75">
+      <c r="B153" s="5"/>
+      <c r="C153" s="5" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
+      <c r="D153" s="5"/>
+    </row>
+    <row r="154" spans="1:4" ht="18.75">
+      <c r="B154" s="5"/>
+      <c r="C154" s="5" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
+      <c r="D154" s="5"/>
+    </row>
+    <row r="155" spans="1:4" ht="18.75">
+      <c r="A155" s="5" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+    </row>
+    <row r="156" spans="1:4" ht="18.75">
+      <c r="A156" s="5" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+    </row>
+    <row r="157" spans="1:4" ht="18.75">
+      <c r="A157" s="5" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+    </row>
+    <row r="158" spans="1:4" ht="18.75">
+      <c r="A158" s="5" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+    </row>
+    <row r="159" spans="1:4" ht="18.75">
+      <c r="B159" s="5" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+    </row>
+    <row r="160" spans="1:4" ht="18.75">
+      <c r="B160" s="5"/>
+      <c r="C160" s="5" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
+      <c r="D160" s="5"/>
+    </row>
+    <row r="161" spans="1:4" ht="18.75">
+      <c r="A161" s="5" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+    </row>
+    <row r="162" spans="1:4" ht="18.75">
+      <c r="B162" s="5" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+    </row>
+    <row r="163" spans="1:4" ht="18.75">
+      <c r="B163" s="5"/>
+      <c r="C163" s="5" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
+      <c r="D163" s="5"/>
+    </row>
+    <row r="164" spans="1:4" ht="18.75">
+      <c r="B164" s="5"/>
+      <c r="C164" s="5" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
+      <c r="D164" s="5"/>
+    </row>
+    <row r="165" spans="1:4" ht="18.75">
+      <c r="A165" s="5" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+    </row>
+    <row r="166" spans="1:4" ht="18.75">
+      <c r="B166" s="5"/>
+      <c r="C166" s="5" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
+      <c r="D166" s="5"/>
+    </row>
+    <row r="167" spans="1:4" ht="18.75">
+      <c r="B167" s="5"/>
+      <c r="C167" s="5" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
+      <c r="D167" s="5"/>
+    </row>
+    <row r="168" spans="1:4" ht="18.75">
+      <c r="B168" s="5"/>
+      <c r="C168" s="5" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
+      <c r="D168" s="5"/>
+    </row>
+    <row r="169" spans="1:4" ht="18.75">
+      <c r="A169" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+    </row>
+    <row r="170" spans="1:4" ht="18.75">
+      <c r="A170" s="5" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+    </row>
+    <row r="171" spans="1:4" ht="18.75">
+      <c r="A171" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+    </row>
+    <row r="172" spans="1:4" ht="18.75">
+      <c r="A172" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+    </row>
+    <row r="173" spans="1:4" ht="18.75">
+      <c r="A173" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+    </row>
+    <row r="174" spans="1:4" ht="18.75">
+      <c r="A174" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
+      <c r="B174" s="5"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+    </row>
+    <row r="175" spans="1:4" ht="18.75">
+      <c r="A175" s="5" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+    </row>
+    <row r="176" spans="1:4" ht="18.75">
+      <c r="A176" s="5" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
+      <c r="B176" s="5"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+    </row>
+    <row r="177" spans="1:4" ht="18.75">
+      <c r="A177" s="5" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+    </row>
+    <row r="178" spans="1:4" ht="18.75">
+      <c r="A178" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
+      <c r="B178" s="5"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+    </row>
+    <row r="179" spans="1:4" ht="18.75">
+      <c r="B179" s="5"/>
+      <c r="C179" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
+      <c r="D179" s="5"/>
+    </row>
+    <row r="180" spans="1:4" ht="18.75">
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
-        <v>179</v>
-      </c>
+    <row r="181" spans="1:4" ht="18.75">
+      <c r="A181" s="5"/>
+      <c r="B181" s="5"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+    </row>
+    <row r="182" spans="1:4" ht="18.75">
+      <c r="A182" s="5"/>
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+    </row>
+    <row r="183" spans="1:4" ht="18.75">
+      <c r="A183" s="5"/>
+      <c r="B183" s="5"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+    </row>
+    <row r="184" spans="1:4" ht="18.75">
+      <c r="A184" s="5"/>
+      <c r="B184" s="5"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+    </row>
+    <row r="185" spans="1:4" ht="18.75">
+      <c r="A185" s="5"/>
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+    </row>
+    <row r="186" spans="1:4" ht="18.75">
+      <c r="A186" s="5"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+    </row>
+    <row r="187" spans="1:4" ht="18.75">
+      <c r="A187" s="5"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+    </row>
+    <row r="188" spans="1:4" ht="18.75">
+      <c r="A188" s="5"/>
+      <c r="B188" s="5"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+    </row>
+    <row r="189" spans="1:4" ht="18.75">
+      <c r="A189" s="5"/>
+      <c r="B189" s="5"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+    </row>
+    <row r="190" spans="1:4" ht="18.75">
+      <c r="A190" s="5"/>
+      <c r="B190" s="5"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+    </row>
+    <row r="191" spans="1:4" ht="18.75">
+      <c r="A191" s="5"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+    </row>
+    <row r="192" spans="1:4" ht="18.75">
+      <c r="A192" s="5"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+    </row>
+    <row r="193" spans="1:4" ht="18.75">
+      <c r="A193" s="5"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+    </row>
+    <row r="194" spans="1:4" ht="18.75">
+      <c r="A194" s="5"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+    </row>
+    <row r="195" spans="1:4" ht="18.75">
+      <c r="A195" s="5"/>
+      <c r="B195" s="5"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+    </row>
+    <row r="196" spans="1:4" ht="18.75">
+      <c r="A196" s="5"/>
+      <c r="B196" s="5"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+    </row>
+    <row r="197" spans="1:4" ht="18.75">
+      <c r="A197" s="5"/>
+      <c r="B197" s="5"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+    </row>
+    <row r="198" spans="1:4" ht="18.75">
+      <c r="A198" s="5"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+    </row>
+    <row r="199" spans="1:4" ht="18.75">
+      <c r="A199" s="5"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+    </row>
+    <row r="200" spans="1:4" ht="18.75">
+      <c r="A200" s="5"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+    </row>
+    <row r="201" spans="1:4" ht="18.75">
+      <c r="A201" s="5"/>
+      <c r="B201" s="5"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+    </row>
+    <row r="202" spans="1:4" ht="18.75">
+      <c r="A202" s="5"/>
+      <c r="B202" s="5"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
+    </row>
+    <row r="203" spans="1:4" ht="18.75">
+      <c r="A203" s="5"/>
+      <c r="B203" s="5"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
+    </row>
+    <row r="204" spans="1:4" ht="18.75">
+      <c r="A204" s="5"/>
+      <c r="B204" s="5"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5"/>
+    </row>
+    <row r="205" spans="1:4" ht="18.75">
+      <c r="A205" s="5"/>
+      <c r="B205" s="5"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
+    </row>
+    <row r="206" spans="1:4" ht="18.75">
+      <c r="A206" s="5"/>
+      <c r="B206" s="5"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5"/>
+    </row>
+    <row r="207" spans="1:4" ht="18.75">
+      <c r="A207" s="5"/>
+      <c r="B207" s="5"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5"/>
+    </row>
+    <row r="208" spans="1:4" ht="18.75">
+      <c r="A208" s="5"/>
+      <c r="B208" s="5"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5"/>
+    </row>
+    <row r="209" spans="1:4" ht="18.75">
+      <c r="A209" s="5"/>
+      <c r="B209" s="5"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
+    </row>
+    <row r="210" spans="1:4" ht="18.75">
+      <c r="A210" s="5"/>
+      <c r="B210" s="5"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+    </row>
+    <row r="211" spans="1:4" ht="18.75">
+      <c r="A211" s="5"/>
+      <c r="B211" s="5"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+    </row>
+    <row r="212" spans="1:4" ht="18.75">
+      <c r="A212" s="5"/>
+      <c r="B212" s="5"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+    </row>
+    <row r="213" spans="1:4" ht="18.75">
+      <c r="A213" s="5"/>
+      <c r="B213" s="5"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+    </row>
+    <row r="214" spans="1:4" ht="18.75">
+      <c r="A214" s="5"/>
+      <c r="B214" s="5"/>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
+    </row>
+    <row r="215" spans="1:4" ht="18.75">
+      <c r="A215" s="5"/>
+      <c r="B215" s="5"/>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5"/>
+    </row>
+    <row r="216" spans="1:4" ht="18.75">
+      <c r="A216" s="5"/>
+      <c r="B216" s="5"/>
+      <c r="C216" s="5"/>
+      <c r="D216" s="5"/>
+    </row>
+    <row r="217" spans="1:4" ht="18.75">
+      <c r="A217" s="5"/>
+      <c r="B217" s="5"/>
+      <c r="C217" s="5"/>
+      <c r="D217" s="5"/>
+    </row>
+    <row r="218" spans="1:4" ht="18.75">
+      <c r="A218" s="5"/>
+      <c r="B218" s="5"/>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5"/>
+    </row>
+    <row r="219" spans="1:4" ht="18.75">
+      <c r="A219" s="5"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+    </row>
+    <row r="220" spans="1:4" ht="18.75">
+      <c r="A220" s="5"/>
+      <c r="B220" s="5"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
+    </row>
+    <row r="221" spans="1:4" ht="18.75">
+      <c r="A221" s="5"/>
+      <c r="B221" s="5"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5"/>
+    </row>
+    <row r="222" spans="1:4" ht="18.75">
+      <c r="A222" s="5"/>
+      <c r="B222" s="5"/>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5"/>
+    </row>
+    <row r="223" spans="1:4" ht="18.75">
+      <c r="A223" s="5"/>
+      <c r="B223" s="5"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="5"/>
+    </row>
+    <row r="224" spans="1:4" ht="18.75">
+      <c r="A224" s="5"/>
+      <c r="B224" s="5"/>
+      <c r="C224" s="5"/>
+      <c r="D224" s="5"/>
+    </row>
+    <row r="225" spans="1:4" ht="18.75">
+      <c r="A225" s="5"/>
+      <c r="B225" s="5"/>
+      <c r="C225" s="5"/>
+      <c r="D225" s="5"/>
+    </row>
+    <row r="226" spans="1:4" ht="18.75">
+      <c r="A226" s="5"/>
+      <c r="B226" s="5"/>
+      <c r="C226" s="5"/>
+      <c r="D226" s="5"/>
+    </row>
+    <row r="227" spans="1:4" ht="18.75">
+      <c r="A227" s="5"/>
+      <c r="B227" s="5"/>
+      <c r="C227" s="5"/>
+      <c r="D227" s="5"/>
+    </row>
+    <row r="228" spans="1:4" ht="18.75">
+      <c r="A228" s="5"/>
+      <c r="B228" s="5"/>
+      <c r="C228" s="5"/>
+      <c r="D228" s="5"/>
+    </row>
+    <row r="229" spans="1:4" ht="18.75">
+      <c r="A229" s="5"/>
+      <c r="B229" s="5"/>
+      <c r="C229" s="5"/>
+      <c r="D229" s="5"/>
+    </row>
+    <row r="230" spans="1:4" ht="18.75">
+      <c r="A230" s="5"/>
+      <c r="B230" s="5"/>
+      <c r="C230" s="5"/>
+      <c r="D230" s="5"/>
+    </row>
+    <row r="231" spans="1:4" ht="18.75">
+      <c r="A231" s="5"/>
+      <c r="B231" s="5"/>
+      <c r="C231" s="5"/>
+      <c r="D231" s="5"/>
+    </row>
+    <row r="232" spans="1:4" ht="18.75">
+      <c r="A232" s="5"/>
+      <c r="B232" s="5"/>
+      <c r="C232" s="5"/>
+      <c r="D232" s="5"/>
+    </row>
+    <row r="233" spans="1:4" ht="18.75">
+      <c r="A233" s="5"/>
+      <c r="B233" s="5"/>
+      <c r="C233" s="5"/>
+      <c r="D233" s="5"/>
+    </row>
+    <row r="234" spans="1:4" ht="18.75">
+      <c r="A234" s="5"/>
+      <c r="B234" s="5"/>
+      <c r="C234" s="5"/>
+      <c r="D234" s="5"/>
+    </row>
+    <row r="235" spans="1:4" ht="18.75">
+      <c r="A235" s="5"/>
+      <c r="B235" s="5"/>
+      <c r="C235" s="5"/>
+      <c r="D235" s="5"/>
+    </row>
+    <row r="236" spans="1:4" ht="18.75">
+      <c r="A236" s="5"/>
+      <c r="B236" s="5"/>
+      <c r="C236" s="5"/>
+      <c r="D236" s="5"/>
+    </row>
+    <row r="237" spans="1:4" ht="18.75">
+      <c r="A237" s="5"/>
+      <c r="B237" s="5"/>
+      <c r="C237" s="5"/>
+      <c r="D237" s="5"/>
+    </row>
+    <row r="238" spans="1:4" ht="18.75">
+      <c r="A238" s="5"/>
+      <c r="B238" s="5"/>
+      <c r="C238" s="5"/>
+      <c r="D238" s="5"/>
+    </row>
+    <row r="239" spans="1:4" ht="18.75">
+      <c r="A239" s="5"/>
+      <c r="B239" s="5"/>
+      <c r="C239" s="5"/>
+      <c r="D239" s="5"/>
+    </row>
+    <row r="240" spans="1:4" ht="18.75">
+      <c r="A240" s="5"/>
+      <c r="B240" s="5"/>
+      <c r="C240" s="5"/>
+      <c r="D240" s="5"/>
+    </row>
+    <row r="241" spans="1:4" ht="18.75">
+      <c r="A241" s="5"/>
+      <c r="B241" s="5"/>
+      <c r="C241" s="5"/>
+      <c r="D241" s="5"/>
+    </row>
+    <row r="242" spans="1:4" ht="18.75">
+      <c r="A242" s="5"/>
+      <c r="B242" s="5"/>
+      <c r="C242" s="5"/>
+      <c r="D242" s="5"/>
+    </row>
+    <row r="243" spans="1:4" ht="18.75">
+      <c r="A243" s="5"/>
+      <c r="B243" s="5"/>
+      <c r="C243" s="5"/>
+      <c r="D243" s="5"/>
+    </row>
+    <row r="244" spans="1:4" ht="18.75">
+      <c r="A244" s="5"/>
+      <c r="B244" s="5"/>
+      <c r="C244" s="5"/>
+      <c r="D244" s="5"/>
+    </row>
+    <row r="245" spans="1:4" ht="18.75">
+      <c r="A245" s="5"/>
+      <c r="B245" s="5"/>
+      <c r="C245" s="5"/>
+      <c r="D245" s="5"/>
+    </row>
+    <row r="246" spans="1:4" ht="18.75">
+      <c r="A246" s="5"/>
+      <c r="B246" s="5"/>
+      <c r="C246" s="5"/>
+      <c r="D246" s="5"/>
+    </row>
+    <row r="247" spans="1:4" ht="18.75">
+      <c r="A247" s="5"/>
+      <c r="B247" s="5"/>
+      <c r="C247" s="5"/>
+      <c r="D247" s="5"/>
+    </row>
+    <row r="248" spans="1:4" ht="18.75">
+      <c r="A248" s="5"/>
+      <c r="B248" s="5"/>
+      <c r="C248" s="5"/>
+      <c r="D248" s="5"/>
+    </row>
+    <row r="249" spans="1:4" ht="18.75">
+      <c r="A249" s="5"/>
+      <c r="B249" s="5"/>
+      <c r="C249" s="5"/>
+      <c r="D249" s="5"/>
+    </row>
+    <row r="250" spans="1:4" ht="18.75">
+      <c r="A250" s="5"/>
+      <c r="B250" s="5"/>
+      <c r="C250" s="5"/>
+      <c r="D250" s="5"/>
+    </row>
+    <row r="251" spans="1:4" ht="18.75">
+      <c r="A251" s="5"/>
+      <c r="B251" s="5"/>
+      <c r="C251" s="5"/>
+      <c r="D251" s="5"/>
+    </row>
+    <row r="252" spans="1:4" ht="18.75">
+      <c r="A252" s="5"/>
+      <c r="B252" s="5"/>
+      <c r="C252" s="5"/>
+      <c r="D252" s="5"/>
+    </row>
+    <row r="253" spans="1:4" ht="18.75">
+      <c r="A253" s="5"/>
+      <c r="B253" s="5"/>
+      <c r="C253" s="5"/>
+      <c r="D253" s="5"/>
+    </row>
+    <row r="254" spans="1:4" ht="18.75">
+      <c r="A254" s="5"/>
+      <c r="B254" s="5"/>
+      <c r="C254" s="5"/>
+      <c r="D254" s="5"/>
+    </row>
+    <row r="255" spans="1:4" ht="18.75">
+      <c r="A255" s="5"/>
+      <c r="B255" s="5"/>
+      <c r="C255" s="5"/>
+      <c r="D255" s="5"/>
+    </row>
+    <row r="256" spans="1:4" ht="18.75">
+      <c r="A256" s="5"/>
+      <c r="B256" s="5"/>
+      <c r="C256" s="5"/>
+      <c r="D256" s="5"/>
+    </row>
+    <row r="257" spans="1:4" ht="18.75">
+      <c r="A257" s="5"/>
+      <c r="B257" s="5"/>
+      <c r="C257" s="5"/>
+      <c r="D257" s="5"/>
+    </row>
+    <row r="258" spans="1:4" ht="18.75">
+      <c r="A258" s="5"/>
+      <c r="B258" s="5"/>
+      <c r="C258" s="5"/>
+      <c r="D258" s="5"/>
+    </row>
+    <row r="259" spans="1:4" ht="18.75">
+      <c r="A259" s="5"/>
+      <c r="B259" s="5"/>
+      <c r="C259" s="5"/>
+      <c r="D259" s="5"/>
+    </row>
+    <row r="260" spans="1:4" ht="18.75">
+      <c r="A260" s="5"/>
+      <c r="B260" s="5"/>
+      <c r="C260" s="5"/>
+      <c r="D260" s="5"/>
+    </row>
+    <row r="261" spans="1:4" ht="18.75">
+      <c r="A261" s="5"/>
+      <c r="B261" s="5"/>
+      <c r="C261" s="5"/>
+      <c r="D261" s="5"/>
+    </row>
+    <row r="262" spans="1:4" ht="18.75">
+      <c r="A262" s="5"/>
+      <c r="B262" s="5"/>
+      <c r="C262" s="5"/>
+      <c r="D262" s="5"/>
+    </row>
+    <row r="263" spans="1:4" ht="18.75">
+      <c r="A263" s="5"/>
+      <c r="B263" s="5"/>
+      <c r="C263" s="5"/>
+      <c r="D263" s="5"/>
+    </row>
+    <row r="264" spans="1:4" ht="18.75">
+      <c r="A264" s="5"/>
+      <c r="B264" s="5"/>
+      <c r="C264" s="5"/>
+      <c r="D264" s="5"/>
+    </row>
+    <row r="265" spans="1:4" ht="18.75">
+      <c r="A265" s="5"/>
+      <c r="B265" s="5"/>
+      <c r="C265" s="5"/>
+      <c r="D265" s="5"/>
+    </row>
+    <row r="266" spans="1:4" ht="18.75">
+      <c r="A266" s="5"/>
+      <c r="B266" s="5"/>
+      <c r="C266" s="5"/>
+      <c r="D266" s="5"/>
+    </row>
+    <row r="267" spans="1:4" ht="18.75">
+      <c r="A267" s="5"/>
+      <c r="B267" s="5"/>
+      <c r="C267" s="5"/>
+      <c r="D267" s="5"/>
+    </row>
+    <row r="268" spans="1:4" ht="18.75">
+      <c r="A268" s="5"/>
+      <c r="B268" s="5"/>
+      <c r="C268" s="5"/>
+      <c r="D268" s="5"/>
+    </row>
+    <row r="269" spans="1:4" ht="18.75">
+      <c r="A269" s="5"/>
+      <c r="B269" s="5"/>
+      <c r="C269" s="5"/>
+      <c r="D269" s="5"/>
+    </row>
+    <row r="270" spans="1:4" ht="18.75">
+      <c r="A270" s="5"/>
+      <c r="B270" s="5"/>
+      <c r="C270" s="5"/>
+      <c r="D270" s="5"/>
+    </row>
+    <row r="271" spans="1:4" ht="18.75">
+      <c r="A271" s="5"/>
+      <c r="B271" s="5"/>
+      <c r="C271" s="5"/>
+      <c r="D271" s="5"/>
+    </row>
+    <row r="272" spans="1:4" ht="18.75">
+      <c r="A272" s="5"/>
+      <c r="B272" s="5"/>
+      <c r="C272" s="5"/>
+      <c r="D272" s="5"/>
+    </row>
+    <row r="273" spans="1:4" ht="18.75">
+      <c r="A273" s="5"/>
+      <c r="B273" s="5"/>
+      <c r="C273" s="5"/>
+      <c r="D273" s="5"/>
+    </row>
+    <row r="274" spans="1:4" ht="18.75">
+      <c r="A274" s="5"/>
+      <c r="B274" s="5"/>
+      <c r="C274" s="5"/>
+      <c r="D274" s="5"/>
+    </row>
+    <row r="275" spans="1:4" ht="18.75">
+      <c r="A275" s="5"/>
+      <c r="B275" s="5"/>
+      <c r="C275" s="5"/>
+      <c r="D275" s="5"/>
+    </row>
+    <row r="276" spans="1:4" ht="18.75">
+      <c r="A276" s="5"/>
+      <c r="B276" s="5"/>
+      <c r="C276" s="5"/>
+      <c r="D276" s="5"/>
+    </row>
+    <row r="277" spans="1:4" ht="18.75">
+      <c r="A277" s="5"/>
+      <c r="B277" s="5"/>
+      <c r="C277" s="5"/>
+      <c r="D277" s="5"/>
+    </row>
+    <row r="278" spans="1:4" ht="18.75">
+      <c r="A278" s="5"/>
+      <c r="B278" s="5"/>
+      <c r="C278" s="5"/>
+      <c r="D278" s="5"/>
+    </row>
+    <row r="279" spans="1:4" ht="18.75">
+      <c r="A279" s="5"/>
+      <c r="B279" s="5"/>
+      <c r="C279" s="5"/>
+      <c r="D279" s="5"/>
+    </row>
+    <row r="280" spans="1:4" ht="18.75">
+      <c r="A280" s="5"/>
+      <c r="B280" s="5"/>
+      <c r="C280" s="5"/>
+      <c r="D280" s="5"/>
+    </row>
+    <row r="281" spans="1:4" ht="18.75">
+      <c r="A281" s="5"/>
+      <c r="B281" s="5"/>
+      <c r="C281" s="5"/>
+      <c r="D281" s="5"/>
+    </row>
+    <row r="282" spans="1:4" ht="18.75">
+      <c r="A282" s="5"/>
+      <c r="B282" s="5"/>
+      <c r="C282" s="5"/>
+      <c r="D282" s="5"/>
+    </row>
+    <row r="283" spans="1:4" ht="18.75">
+      <c r="A283" s="5"/>
+      <c r="B283" s="5"/>
+      <c r="C283" s="5"/>
+      <c r="D283" s="5"/>
+    </row>
+    <row r="284" spans="1:4" ht="18.75">
+      <c r="A284" s="5"/>
+      <c r="B284" s="5"/>
+      <c r="C284" s="5"/>
+      <c r="D284" s="5"/>
+    </row>
+    <row r="285" spans="1:4" ht="18.75">
+      <c r="A285" s="5"/>
+      <c r="B285" s="5"/>
+      <c r="C285" s="5"/>
+      <c r="D285" s="5"/>
+    </row>
+    <row r="286" spans="1:4" ht="18.75">
+      <c r="A286" s="5"/>
+      <c r="B286" s="5"/>
+      <c r="C286" s="5"/>
+      <c r="D286" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/单词.xlsx
+++ b/单词.xlsx
@@ -1,772 +1,647 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203">
   <si>
     <t>不认识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>不熟练</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>熟练</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精通</t>
   </si>
   <si>
     <t>intention</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>equivalence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>negotiate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>disappointing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>alternative</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>access</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>biological</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strategy</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>standpoint</t>
   </si>
   <si>
     <t>paradox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>primary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>standpoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>grab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>crucial</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>flaw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>depressed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>obstacle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>automatic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>passionate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gambling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>logic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>theory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>download</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>signal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>authoritative</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>smooth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>institution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vehicle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>plague</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>psychological</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>shade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>persistent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>voluntary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tolerance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>senior</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>individual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>contemporary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>opposite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>specialize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>philosopher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>unrest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>startle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>emission</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>overweight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>occupation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mainstream</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>scholarship</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>contract</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cheek</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interdependence</t>
   </si>
   <si>
     <t>import</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>fiction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upbringing</t>
   </si>
   <si>
     <t>preserve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vitally</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>masculine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>advocate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dust</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>track</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>confidence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>riotous</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sophisticated</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>similar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>transform</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>approve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>session</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>awareness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>exhaust</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>subsidize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>grocery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ignorance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>intelligence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tiny</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>praise</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>memorize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>relative</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>breakthrough</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>incidence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>scratch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>harmful</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>undergo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>recession</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>extraordinary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>improper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marginalize</t>
   </si>
   <si>
     <t>vital</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>fortunately</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>commencement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>fetch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>clumsy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entertaining</t>
+  </si>
+  <si>
+    <t>emit</t>
   </si>
   <si>
     <t>estertaining</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>irregular</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>psychologist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>era</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>triumph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>detection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cozy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gallery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>enormous</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>obtain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>desert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>aviate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>determine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>disappear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>entitle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>relieve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>generosity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>colleague</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>undertake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>convenient</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>perferentially</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>column</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>affectionate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>issue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>inquire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>groundlessly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>independently</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>approach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>administration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>adversity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>technician</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>regular</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>miscalculation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hinder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>selection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>superior</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>matter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>passively</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>grant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>liberation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>observe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>institute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dormitory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>awful</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>emergency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>stress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>launch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>suppose</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>remove</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>exposure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>promote</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>engage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>uncertain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>accommodate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>slave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>contrast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>clinic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>award</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>worthwhile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cruelty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>threaten</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>chemical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>consistent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>renew</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>takeoff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>innocent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>currently</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dropout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>replace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sightseeing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>honor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>imitate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>installment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>personality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>headquarter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ingredient</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>revenue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sensitive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>particular</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tumor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>consequence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>explicitly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>generous</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strategy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>project</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>marginalize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>entertaining</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interdependence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upbringing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>technicial</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>harm</t>
+  </si>
+  <si>
+    <t>imaginary</t>
+  </si>
+  <si>
+    <t>contaminate</t>
+  </si>
+  <si>
+    <t>soar</t>
+  </si>
+  <si>
+    <t>solely</t>
+  </si>
+  <si>
+    <t>tremendous</t>
+  </si>
+  <si>
+    <t>civilization</t>
+  </si>
+  <si>
+    <t>tough</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>injure</t>
+  </si>
+  <si>
+    <t>embrace</t>
+  </si>
+  <si>
+    <t>seldom</t>
+  </si>
+  <si>
+    <t>performance</t>
+  </si>
+  <si>
+    <t>violate</t>
+  </si>
+  <si>
+    <t>associate</t>
+  </si>
+  <si>
+    <t>privacy</t>
+  </si>
+  <si>
+    <t>choke</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -775,7 +650,6 @@
       <sz val="22"/>
       <color rgb="FFFF0000"/>
       <name val="方正舒体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -783,7 +657,6 @@
       <sz val="22"/>
       <color rgb="FFFFC000"/>
       <name val="方正舒体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -791,7 +664,6 @@
       <sz val="22"/>
       <color rgb="FF00B0F0"/>
       <name val="方正舒体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -799,27 +671,362 @@
       <sz val="22"/>
       <color rgb="FF00B050"/>
       <name val="方正舒体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -842,9 +1049,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -852,6 +1301,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -861,18 +1313,67 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1155,27 +1656,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97:A111"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5">
+    <row r="1" ht="27" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1186,2032 +1687,2078 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" spans="1:4">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" spans="1:4">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="18.75">
+    <row r="4" ht="18.75" spans="1:4">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" ht="18.75">
+    <row r="5" ht="18.75" spans="1:4">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" ht="18.75">
+    <row r="6" ht="18.75" spans="1:4">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" ht="18.75">
+    <row r="7" ht="18.75" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="18.75">
+    <row r="8" ht="18.75" spans="1:4">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" ht="18.75">
+    <row r="9" ht="18.75" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" ht="18.75">
+    <row r="10" ht="18.75" spans="1:4">
       <c r="A10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="18.75">
+    <row r="11" ht="18.75" spans="1:4">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="18.75">
+    <row r="12" ht="18.75" spans="1:4">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="18.75">
+    <row r="13" ht="18.75" spans="1:4">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="18.75">
+    <row r="14" ht="18.75" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="18.75">
+    <row r="15" ht="18.75" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" ht="18.75">
+    <row r="16" ht="18.75" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" ht="18.75">
+    <row r="17" ht="18.75" spans="1:4">
       <c r="A17" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" ht="18.75">
+    <row r="18" ht="18.75" spans="1:4">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" ht="18.75">
+    <row r="19" ht="18.75" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" ht="18.75">
+    <row r="20" ht="18.75" spans="1:4">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" ht="18.75">
+    <row r="21" ht="18.75" spans="1:4">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18.75">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" ht="18.75" spans="1:4">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" ht="18.75">
+    <row r="23" ht="18.75" spans="1:4">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="18.75">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" ht="18.75" spans="1:4">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" ht="18.75">
+    <row r="25" ht="18.75" spans="1:4">
       <c r="A25" s="5"/>
       <c r="C25" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" ht="18.75">
+    <row r="26" ht="18.75" spans="2:4">
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" ht="18.75">
+    <row r="27" ht="18.75" spans="2:4">
       <c r="B27" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" ht="18.75">
+    <row r="28" ht="18.75" spans="1:4">
       <c r="A28" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" ht="18.75">
+    <row r="29" ht="18.75" spans="1:4">
       <c r="A29" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" ht="18.75">
+    <row r="30" ht="18.75" spans="2:4">
       <c r="B30" s="5"/>
       <c r="C30" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" ht="18.75">
+    <row r="31" ht="18.75" spans="2:4">
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" ht="18.75">
+    <row r="32" ht="18.75" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4" ht="18.75">
+    <row r="33" ht="18.75" spans="1:4">
       <c r="A33" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" ht="18.75">
+    <row r="34" ht="18.75" spans="1:4">
       <c r="A34" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" ht="18.75">
+    <row r="35" ht="18.75" spans="2:4">
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" ht="18.75">
+    <row r="36" ht="18.75" spans="1:4">
       <c r="A36" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4" ht="18.75">
+    <row r="37" ht="18.75" spans="1:4">
       <c r="A37" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" ht="18.75">
+    <row r="38" ht="18.75" spans="1:4">
       <c r="A38" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:4" ht="18.75">
+    <row r="39" ht="18.75" spans="1:4">
       <c r="A39" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="1:4" ht="18.75">
+    <row r="40" ht="18.75" spans="2:4">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="18.75">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" ht="18.75" spans="1:4">
       <c r="A41" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="1:4" ht="18.75">
+    <row r="42" ht="18.75" spans="1:4">
       <c r="A42" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" spans="1:4" ht="18.75">
+    <row r="43" ht="18.75" spans="1:4">
       <c r="A43" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
     </row>
-    <row r="44" spans="1:4" ht="18.75">
+    <row r="44" ht="18.75" spans="1:4">
       <c r="A44" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:4" ht="18.75">
+    <row r="45" ht="18.75" spans="2:4">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="18.75">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" ht="18.75" spans="1:4">
       <c r="A46" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:4" ht="18.75">
+    <row r="47" ht="18.75" spans="2:4">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="18.75">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" ht="18.75" spans="2:3">
       <c r="B48" s="5"/>
       <c r="C48" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="18.75">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" ht="18.75" spans="1:4">
       <c r="A49" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
     </row>
-    <row r="50" spans="1:4" ht="18.75">
+    <row r="50" ht="18.75" spans="2:4">
       <c r="B50" s="5"/>
       <c r="C50" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D50" s="5"/>
     </row>
-    <row r="51" spans="1:4" ht="18.75">
+    <row r="51" ht="18.75" spans="3:4">
       <c r="C51" s="5" t="s">
-        <v>181</v>
+        <v>53</v>
       </c>
       <c r="D51" s="5"/>
     </row>
-    <row r="52" spans="1:4" ht="18.75">
+    <row r="52" ht="18.75" spans="2:4">
       <c r="B52" s="5"/>
       <c r="C52" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D52" s="5"/>
     </row>
-    <row r="53" spans="1:4" ht="18.75">
+    <row r="53" ht="18.75" spans="3:4">
       <c r="C53" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D53" s="5"/>
     </row>
-    <row r="54" spans="1:4" ht="18.75">
+    <row r="54" ht="18.75" spans="2:4">
       <c r="B54" s="5"/>
       <c r="C54" s="5" t="s">
-        <v>182</v>
+        <v>56</v>
       </c>
       <c r="D54" s="5"/>
     </row>
-    <row r="55" spans="1:4" ht="18.75">
+    <row r="55" ht="18.75" spans="3:4">
       <c r="C55" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" spans="1:4" ht="18.75">
+    <row r="56" ht="18.75" spans="2:4">
       <c r="B56" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
     </row>
-    <row r="57" spans="1:4" ht="18.75">
+    <row r="57" ht="18.75" spans="1:4">
       <c r="A57" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:4" ht="18.75">
+    <row r="58" ht="18.75" spans="3:4">
       <c r="C58" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:4" ht="18.75">
+    <row r="59" ht="18.75" spans="2:4">
       <c r="B59" s="5"/>
       <c r="C59" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="1:4" ht="18.75">
+    <row r="60" ht="18.75" spans="2:4">
       <c r="B60" s="5"/>
       <c r="C60" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="1:4" ht="18.75">
+    <row r="61" ht="18.75" spans="2:4">
       <c r="B61" s="5"/>
       <c r="C61" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="1:4" ht="18.75">
+    <row r="62" ht="18.75" spans="2:4">
       <c r="B62" s="5"/>
       <c r="C62" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="1:4" ht="18.75">
+    <row r="63" ht="18.75" spans="1:4">
       <c r="A63" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
     </row>
-    <row r="64" spans="1:4" ht="18.75">
+    <row r="64" ht="18.75" spans="2:4">
       <c r="B64" s="5"/>
       <c r="C64" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D64" s="5"/>
     </row>
-    <row r="65" spans="1:4" ht="18.75">
+    <row r="65" ht="18.75" spans="2:4">
       <c r="B65" s="5"/>
       <c r="C65" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D65" s="5"/>
     </row>
-    <row r="66" spans="1:4" ht="18.75">
+    <row r="66" ht="18.75" spans="2:4">
       <c r="B66" s="5"/>
       <c r="C66" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D66" s="5"/>
     </row>
-    <row r="67" spans="1:4" ht="18.75">
+    <row r="67" ht="18.75" spans="2:4">
       <c r="B67" s="5"/>
       <c r="C67" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D67" s="5"/>
     </row>
-    <row r="68" spans="1:4" ht="18.75">
+    <row r="68" ht="18.75" spans="1:4">
       <c r="A68" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
     </row>
-    <row r="69" spans="1:4" ht="18.75">
+    <row r="69" ht="18.75" spans="1:4">
       <c r="A69" s="5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
     </row>
-    <row r="70" spans="1:4" ht="18.75">
+    <row r="70" ht="18.75" spans="1:4">
       <c r="A70" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
     </row>
-    <row r="71" spans="1:4" ht="18.75">
+    <row r="71" ht="18.75" spans="1:4">
       <c r="A71" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
     </row>
-    <row r="72" spans="1:4" ht="18.75">
+    <row r="72" ht="18.75" spans="1:4">
       <c r="A72" s="5"/>
       <c r="B72" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
     </row>
-    <row r="73" spans="1:4" ht="18.75">
+    <row r="73" ht="18.75" spans="2:4">
       <c r="B73" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
     </row>
-    <row r="74" spans="1:4" ht="18.75">
+    <row r="74" ht="18.75" spans="2:4">
       <c r="B74" s="5"/>
       <c r="C74" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D74" s="5"/>
     </row>
-    <row r="75" spans="1:4" ht="18.75">
+    <row r="75" ht="18.75" spans="2:4">
       <c r="B75" s="5"/>
       <c r="C75" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D75" s="5"/>
     </row>
-    <row r="76" spans="1:4" ht="18.75">
+    <row r="76" ht="18.75" spans="2:4">
       <c r="B76" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
     </row>
-    <row r="77" spans="1:4" ht="18.75">
+    <row r="77" ht="18.75" spans="2:4">
       <c r="B77" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
     </row>
-    <row r="78" spans="1:4" ht="18.75">
+    <row r="78" ht="18.75" spans="2:4">
       <c r="B78" s="5"/>
       <c r="C78" s="5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D78" s="5"/>
     </row>
-    <row r="79" spans="1:4" ht="18.75">
+    <row r="79" ht="18.75" spans="1:4">
       <c r="A79" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
     </row>
-    <row r="80" spans="1:4" ht="18.75">
+    <row r="80" ht="18.75" spans="2:4">
       <c r="B80" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
     </row>
-    <row r="81" spans="1:4" ht="18.75">
+    <row r="81" ht="18.75" spans="2:4">
       <c r="B81" s="5"/>
       <c r="C81" s="5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D81" s="5"/>
     </row>
-    <row r="82" spans="1:4" ht="18.75">
+    <row r="82" ht="18.75" spans="2:4">
       <c r="B82" s="5"/>
       <c r="C82" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D82" s="5"/>
     </row>
-    <row r="83" spans="1:4" ht="18.75">
+    <row r="83" ht="18.75" spans="1:4">
       <c r="A83" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
     </row>
-    <row r="84" spans="1:4" ht="18.75">
+    <row r="84" ht="18.75" spans="1:4">
       <c r="A84" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
     </row>
-    <row r="85" spans="1:4" ht="18.75">
+    <row r="85" ht="18.75" spans="1:4">
       <c r="A85" s="5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
     </row>
-    <row r="86" spans="1:4" ht="18.75">
+    <row r="86" ht="18.75" spans="2:4">
       <c r="B86" s="5" t="s">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
     </row>
-    <row r="87" spans="1:4" ht="18.75">
+    <row r="87" ht="18.75" spans="2:4">
       <c r="B87" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
     </row>
-    <row r="88" spans="1:4" ht="18.75">
+    <row r="88" ht="18.75" spans="1:4">
       <c r="A88" s="5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
     </row>
-    <row r="89" spans="1:4" ht="18.75">
+    <row r="89" ht="18.75" spans="1:4">
       <c r="A89" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
     </row>
-    <row r="90" spans="1:4" ht="18.75">
+    <row r="90" ht="18.75" spans="2:4">
       <c r="B90" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
     </row>
-    <row r="91" spans="1:4" ht="18.75">
+    <row r="91" ht="18.75" spans="2:4">
       <c r="B91" s="5"/>
       <c r="C91" s="5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D91" s="5"/>
     </row>
-    <row r="92" spans="1:4" ht="18.75">
+    <row r="92" ht="18.75" spans="1:4">
       <c r="A92" s="5" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
     </row>
-    <row r="93" spans="1:4" ht="18.75">
+    <row r="93" ht="18.75" spans="2:4">
       <c r="B93" s="5" t="s">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
     </row>
-    <row r="94" spans="1:4" ht="18.75">
+    <row r="94" ht="18.75" spans="1:4">
       <c r="A94" s="5" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
     </row>
-    <row r="95" spans="1:4" ht="18.75">
+    <row r="95" ht="18.75" spans="2:4">
       <c r="B95" s="5"/>
       <c r="C95" s="5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D95" s="5"/>
     </row>
-    <row r="96" spans="1:4" ht="18.75">
+    <row r="96" ht="18.75" spans="2:4">
       <c r="B96" s="5"/>
       <c r="C96" s="5" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" spans="1:4" ht="18.75">
+    <row r="97" ht="18.75" spans="1:4">
       <c r="A97" s="5" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="1:4" ht="18.75">
+    <row r="98" ht="18.75" spans="1:4">
       <c r="A98" s="5" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="1:4" ht="18.75">
+    <row r="99" ht="18.75" spans="1:4">
       <c r="A99" s="5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="1:4" ht="18.75">
+    <row r="100" ht="18.75" spans="2:4">
       <c r="B100" s="5" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
     </row>
-    <row r="101" spans="1:4" ht="18.75">
+    <row r="101" ht="18.75" spans="1:4">
       <c r="A101" s="5" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
     </row>
-    <row r="102" spans="1:4" ht="18.75">
+    <row r="102" ht="18.75" spans="1:4">
       <c r="A102" s="5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
     </row>
-    <row r="103" spans="1:4" ht="18.75">
+    <row r="103" ht="18.75" spans="1:4">
       <c r="A103" s="5" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
     </row>
-    <row r="104" spans="1:4" ht="18.75">
+    <row r="104" ht="18.75" spans="1:4">
       <c r="A104" s="5" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
     </row>
-    <row r="105" spans="1:4" ht="18.75">
+    <row r="105" ht="18.75" spans="1:4">
       <c r="A105" s="5" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
     </row>
-    <row r="106" spans="1:4" ht="18.75">
+    <row r="106" ht="18.75" spans="1:4">
       <c r="A106" s="5" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
     </row>
-    <row r="107" spans="1:4" ht="18.75">
+    <row r="107" ht="18.75" spans="1:4">
       <c r="A107" s="5" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
     </row>
-    <row r="108" spans="1:4" ht="18.75">
+    <row r="108" ht="18.75" spans="1:4">
       <c r="A108" s="5" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
     </row>
-    <row r="109" spans="1:4" ht="18.75">
+    <row r="109" ht="18.75" spans="1:4">
       <c r="A109" s="5" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
     </row>
-    <row r="110" spans="1:4" ht="18.75">
+    <row r="110" ht="18.75" spans="1:4">
       <c r="A110" s="5" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
     </row>
-    <row r="111" spans="1:4" ht="18.75">
+    <row r="111" ht="18.75" spans="2:4">
       <c r="B111" s="5" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
     </row>
-    <row r="112" spans="1:4" ht="18.75">
+    <row r="112" ht="18.75" spans="2:4">
       <c r="B112" s="5" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
     </row>
-    <row r="113" spans="1:4" ht="18.75">
+    <row r="113" ht="18.75" spans="1:4">
       <c r="A113" s="5" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
     </row>
-    <row r="114" spans="1:4" ht="18.75">
+    <row r="114" ht="18.75" spans="1:4">
       <c r="A114" s="5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
     </row>
-    <row r="115" spans="1:4" ht="18.75">
+    <row r="115" ht="18.75" spans="2:4">
       <c r="B115" s="5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
     </row>
-    <row r="116" spans="1:4" ht="18.75">
+    <row r="116" ht="18.75" spans="1:4">
       <c r="A116" s="5" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
     </row>
-    <row r="117" spans="1:4" ht="18.75">
+    <row r="117" ht="18.75" spans="2:4">
       <c r="B117" s="5"/>
       <c r="C117" s="5" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D117" s="5"/>
     </row>
-    <row r="118" spans="1:4" ht="18.75">
+    <row r="118" ht="18.75" spans="2:4">
       <c r="B118" s="5"/>
       <c r="C118" s="5" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D118" s="5"/>
     </row>
-    <row r="119" spans="1:4" ht="18.75">
+    <row r="119" ht="18.75" spans="1:4">
       <c r="A119" s="5" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
     </row>
-    <row r="120" spans="1:4" ht="18.75">
+    <row r="120" ht="18.75" spans="1:4">
       <c r="A120" s="5" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
     </row>
-    <row r="121" spans="1:4" ht="18.75">
+    <row r="121" ht="18.75" spans="1:4">
       <c r="A121" s="5" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
     </row>
-    <row r="122" spans="1:4" ht="18.75">
+    <row r="122" ht="18.75" spans="1:4">
       <c r="A122" s="5" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
     </row>
-    <row r="123" spans="1:4" ht="18.75">
+    <row r="123" ht="18.75" spans="1:4">
       <c r="A123" s="5" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
     </row>
-    <row r="124" spans="1:4" ht="18.75">
+    <row r="124" ht="18.75" spans="1:4">
       <c r="A124" s="5" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
     </row>
-    <row r="125" spans="1:4" ht="18.75">
+    <row r="125" ht="18.75" spans="2:4">
       <c r="B125" s="5" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
     </row>
-    <row r="126" spans="1:4" ht="18.75">
+    <row r="126" ht="18.75" spans="1:4">
       <c r="A126" s="5" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
     </row>
-    <row r="127" spans="1:4" ht="18.75">
+    <row r="127" ht="18.75" spans="2:4">
       <c r="B127" s="5" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="1:4" ht="18.75">
+    <row r="128" ht="18.75" spans="2:4">
       <c r="B128" s="5"/>
       <c r="C128" s="5" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D128" s="5"/>
     </row>
-    <row r="129" spans="1:4" ht="18.75">
+    <row r="129" ht="18.75" spans="1:4">
       <c r="A129" s="5" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
     </row>
-    <row r="130" spans="1:4" ht="18.75">
+    <row r="130" ht="18.75" spans="1:4">
       <c r="A130" s="5" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
     </row>
-    <row r="131" spans="1:4" ht="18.75">
+    <row r="131" ht="18.75" spans="1:4">
       <c r="A131" s="5" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
     </row>
-    <row r="132" spans="1:4" ht="18.75">
+    <row r="132" ht="18.75" spans="1:4">
       <c r="A132" s="5" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
     </row>
-    <row r="133" spans="1:4" ht="18.75">
+    <row r="133" ht="18.75" spans="1:4">
       <c r="A133" s="5" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
     </row>
-    <row r="134" spans="1:4" ht="18.75">
+    <row r="134" ht="18.75" spans="1:4">
       <c r="A134" s="5" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
     </row>
-    <row r="135" spans="1:4" ht="18.75">
+    <row r="135" ht="18.75" spans="1:4">
       <c r="A135" s="5" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
     </row>
-    <row r="136" spans="1:4" ht="18.75">
+    <row r="136" ht="18.75" spans="1:4">
       <c r="A136" s="5" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
     </row>
-    <row r="137" spans="1:4" ht="18.75">
+    <row r="137" ht="18.75" spans="1:4">
       <c r="A137" s="5" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
     </row>
-    <row r="138" spans="1:4" ht="18.75">
+    <row r="138" ht="18.75" spans="2:4">
       <c r="B138" s="5"/>
       <c r="C138" s="5" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D138" s="5"/>
     </row>
-    <row r="139" spans="1:4" ht="18.75">
+    <row r="139" ht="18.75" spans="1:4">
       <c r="A139" s="5" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
     </row>
-    <row r="140" spans="1:4" ht="18.75">
+    <row r="140" ht="18.75" spans="2:4">
       <c r="B140" s="5" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
     </row>
-    <row r="141" spans="1:4" ht="18.75">
+    <row r="141" ht="18.75" spans="2:4">
       <c r="B141" s="5"/>
       <c r="C141" s="5" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D141" s="5"/>
     </row>
-    <row r="142" spans="1:4" ht="18.75">
+    <row r="142" ht="18.75" spans="1:4">
       <c r="A142" s="5" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
     </row>
-    <row r="143" spans="1:4" ht="18.75">
+    <row r="143" ht="18.75" spans="2:4">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="18.75">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="144" ht="18.75" spans="1:4">
       <c r="A144" s="5" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
     </row>
-    <row r="145" spans="1:4" ht="18.75">
+    <row r="145" ht="18.75" spans="2:4">
       <c r="B145" s="5"/>
       <c r="C145" s="5" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D145" s="5"/>
     </row>
-    <row r="146" spans="1:4" ht="18.75">
+    <row r="146" ht="18.75" spans="1:4">
       <c r="A146" s="5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
     </row>
-    <row r="147" spans="1:4" ht="18.75">
+    <row r="147" ht="18.75" spans="2:4">
       <c r="B147" s="5" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
     </row>
-    <row r="148" spans="1:4" ht="18.75">
+    <row r="148" ht="18.75" spans="1:4">
       <c r="A148" s="5" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
     </row>
-    <row r="149" spans="1:4" ht="18.75">
+    <row r="149" ht="18.75" spans="1:4">
       <c r="A149" s="5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
     </row>
-    <row r="150" spans="1:4" ht="18.75">
+    <row r="150" ht="18.75" spans="2:4">
       <c r="B150" s="5"/>
       <c r="C150" s="5" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D150" s="5"/>
     </row>
-    <row r="151" spans="1:4" ht="18.75">
+    <row r="151" ht="18.75" spans="1:4">
       <c r="A151" s="5" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
     </row>
-    <row r="152" spans="1:4" ht="18.75">
+    <row r="152" ht="18.75" spans="1:4">
       <c r="A152" s="5" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
     </row>
-    <row r="153" spans="1:4" ht="18.75">
+    <row r="153" ht="18.75" spans="2:4">
       <c r="B153" s="5"/>
       <c r="C153" s="5" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D153" s="5"/>
     </row>
-    <row r="154" spans="1:4" ht="18.75">
+    <row r="154" ht="18.75" spans="2:4">
       <c r="B154" s="5"/>
       <c r="C154" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D154" s="5"/>
     </row>
-    <row r="155" spans="1:4" ht="18.75">
+    <row r="155" ht="18.75" spans="1:4">
       <c r="A155" s="5" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
     </row>
-    <row r="156" spans="1:4" ht="18.75">
+    <row r="156" ht="18.75" spans="1:4">
       <c r="A156" s="5" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
     </row>
-    <row r="157" spans="1:4" ht="18.75">
+    <row r="157" ht="18.75" spans="1:4">
       <c r="A157" s="5" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
     </row>
-    <row r="158" spans="1:4" ht="18.75">
+    <row r="158" ht="18.75" spans="1:4">
       <c r="A158" s="5" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
     </row>
-    <row r="159" spans="1:4" ht="18.75">
+    <row r="159" ht="18.75" spans="2:4">
       <c r="B159" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
     </row>
-    <row r="160" spans="1:4" ht="18.75">
+    <row r="160" ht="18.75" spans="2:4">
       <c r="B160" s="5"/>
       <c r="C160" s="5" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D160" s="5"/>
     </row>
-    <row r="161" spans="1:4" ht="18.75">
+    <row r="161" ht="18.75" spans="1:4">
       <c r="A161" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
     </row>
-    <row r="162" spans="1:4" ht="18.75">
+    <row r="162" ht="18.75" spans="2:4">
       <c r="B162" s="5" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
     </row>
-    <row r="163" spans="1:4" ht="18.75">
+    <row r="163" ht="18.75" spans="2:4">
       <c r="B163" s="5"/>
       <c r="C163" s="5" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D163" s="5"/>
     </row>
-    <row r="164" spans="1:4" ht="18.75">
+    <row r="164" ht="18.75" spans="2:4">
       <c r="B164" s="5"/>
       <c r="C164" s="5" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D164" s="5"/>
     </row>
-    <row r="165" spans="1:4" ht="18.75">
+    <row r="165" ht="18.75" spans="1:4">
       <c r="A165" s="5" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
     </row>
-    <row r="166" spans="1:4" ht="18.75">
+    <row r="166" ht="18.75" spans="2:4">
       <c r="B166" s="5"/>
       <c r="C166" s="5" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="1:4" ht="18.75">
+    <row r="167" ht="18.75" spans="2:4">
       <c r="B167" s="5"/>
       <c r="C167" s="5" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="1:4" ht="18.75">
+    <row r="168" ht="18.75" spans="2:4">
       <c r="B168" s="5"/>
       <c r="C168" s="5" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D168" s="5"/>
     </row>
-    <row r="169" spans="1:4" ht="18.75">
+    <row r="169" ht="18.75" spans="1:4">
       <c r="A169" s="5" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
     </row>
-    <row r="170" spans="1:4" ht="18.75">
+    <row r="170" ht="18.75" spans="1:4">
       <c r="A170" s="5" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
     </row>
-    <row r="171" spans="1:4" ht="18.75">
+    <row r="171" ht="18.75" spans="1:4">
       <c r="A171" s="5" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
     </row>
-    <row r="172" spans="1:4" ht="18.75">
+    <row r="172" ht="18.75" spans="1:4">
       <c r="A172" s="5" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
     </row>
-    <row r="173" spans="1:4" ht="18.75">
+    <row r="173" ht="18.75" spans="1:4">
       <c r="A173" s="5" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
     </row>
-    <row r="174" spans="1:4" ht="18.75">
+    <row r="174" ht="18.75" spans="1:4">
       <c r="A174" s="5" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
     </row>
-    <row r="175" spans="1:4" ht="18.75">
+    <row r="175" ht="18.75" spans="1:4">
       <c r="A175" s="5" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
     </row>
-    <row r="176" spans="1:4" ht="18.75">
+    <row r="176" ht="18.75" spans="1:4">
       <c r="A176" s="5" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
     </row>
-    <row r="177" spans="1:4" ht="18.75">
+    <row r="177" ht="18.75" spans="1:4">
       <c r="A177" s="5" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
     </row>
-    <row r="178" spans="1:4" ht="18.75">
+    <row r="178" ht="18.75" spans="1:4">
       <c r="A178" s="5" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
     </row>
-    <row r="179" spans="1:4" ht="18.75">
+    <row r="179" ht="18.75" spans="2:4">
       <c r="B179" s="5"/>
       <c r="C179" s="5" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D179" s="5"/>
     </row>
-    <row r="180" spans="1:4" ht="18.75">
+    <row r="180" ht="18.75" spans="2:4">
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="18.75">
-      <c r="A181" s="5"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="181" ht="18.75" spans="1:4">
+      <c r="A181" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
     </row>
-    <row r="182" spans="1:4" ht="18.75">
-      <c r="A182" s="5"/>
+    <row r="182" ht="18.75" spans="1:4">
+      <c r="A182" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
     </row>
-    <row r="183" spans="1:4" ht="18.75">
-      <c r="A183" s="5"/>
+    <row r="183" ht="18.75" spans="1:4">
+      <c r="A183" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
     </row>
-    <row r="184" spans="1:4" ht="18.75">
-      <c r="A184" s="5"/>
+    <row r="184" ht="18.75" spans="1:4">
+      <c r="A184" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
     </row>
-    <row r="185" spans="1:4" ht="18.75">
-      <c r="A185" s="5"/>
+    <row r="185" ht="18.75" spans="1:4">
+      <c r="A185" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
     </row>
-    <row r="186" spans="1:4" ht="18.75">
-      <c r="A186" s="5"/>
+    <row r="186" ht="18.75" spans="1:4">
+      <c r="A186" s="5" t="s">
+        <v>188</v>
+      </c>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
     </row>
-    <row r="187" spans="1:4" ht="18.75">
-      <c r="A187" s="5"/>
+    <row r="187" ht="18.75" spans="1:4">
+      <c r="A187" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
     </row>
-    <row r="188" spans="1:4" ht="18.75">
-      <c r="A188" s="5"/>
+    <row r="188" ht="18.75" spans="1:4">
+      <c r="A188" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
     </row>
-    <row r="189" spans="1:4" ht="18.75">
-      <c r="A189" s="5"/>
+    <row r="189" ht="18.75" spans="1:4">
+      <c r="A189" s="5" t="s">
+        <v>191</v>
+      </c>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
     </row>
-    <row r="190" spans="1:4" ht="18.75">
-      <c r="A190" s="5"/>
+    <row r="190" ht="18.75" spans="1:4">
+      <c r="A190" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
     </row>
-    <row r="191" spans="1:4" ht="18.75">
-      <c r="A191" s="5"/>
+    <row r="191" ht="18.75" spans="1:4">
+      <c r="A191" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
     </row>
-    <row r="192" spans="1:4" ht="18.75">
-      <c r="A192" s="5"/>
+    <row r="192" ht="18.75" spans="1:4">
+      <c r="A192" s="5" t="s">
+        <v>194</v>
+      </c>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
     </row>
-    <row r="193" spans="1:4" ht="18.75">
-      <c r="A193" s="5"/>
+    <row r="193" ht="18.75" spans="1:4">
+      <c r="A193" s="5" t="s">
+        <v>195</v>
+      </c>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
     </row>
-    <row r="194" spans="1:4" ht="18.75">
-      <c r="A194" s="5"/>
+    <row r="194" ht="18.75" spans="1:4">
+      <c r="A194" s="5" t="s">
+        <v>196</v>
+      </c>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="1:4" ht="18.75">
-      <c r="A195" s="5"/>
+    <row r="195" ht="18.75" spans="1:4">
+      <c r="A195" s="5" t="s">
+        <v>197</v>
+      </c>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="1:4" ht="18.75">
-      <c r="A196" s="5"/>
+    <row r="196" ht="18.75" spans="1:4">
+      <c r="A196" s="5" t="s">
+        <v>198</v>
+      </c>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="1:4" ht="18.75">
-      <c r="A197" s="5"/>
+    <row r="197" ht="18.75" spans="1:4">
+      <c r="A197" s="5" t="s">
+        <v>199</v>
+      </c>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="1:4" ht="18.75">
-      <c r="A198" s="5"/>
+    <row r="198" ht="18.75" spans="1:4">
+      <c r="A198" s="5" t="s">
+        <v>200</v>
+      </c>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
     </row>
-    <row r="199" spans="1:4" ht="18.75">
-      <c r="A199" s="5"/>
+    <row r="199" ht="18.75" spans="1:4">
+      <c r="A199" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
     </row>
-    <row r="200" spans="1:4" ht="18.75">
-      <c r="A200" s="5"/>
+    <row r="200" ht="18.75" spans="1:4">
+      <c r="A200" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
     </row>
-    <row r="201" spans="1:4" ht="18.75">
+    <row r="201" ht="18.75" spans="1:4">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
     </row>
-    <row r="202" spans="1:4" ht="18.75">
+    <row r="202" ht="18.75" spans="1:4">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="1:4" ht="18.75">
+    <row r="203" ht="18.75" spans="1:4">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
     </row>
-    <row r="204" spans="1:4" ht="18.75">
+    <row r="204" ht="18.75" spans="1:4">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="1:4" ht="18.75">
+    <row r="205" ht="18.75" spans="1:4">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
     </row>
-    <row r="206" spans="1:4" ht="18.75">
+    <row r="206" ht="18.75" spans="1:4">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
     </row>
-    <row r="207" spans="1:4" ht="18.75">
+    <row r="207" ht="18.75" spans="1:4">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
     </row>
-    <row r="208" spans="1:4" ht="18.75">
+    <row r="208" ht="18.75" spans="1:4">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
     </row>
-    <row r="209" spans="1:4" ht="18.75">
+    <row r="209" ht="18.75" spans="1:4">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
     </row>
-    <row r="210" spans="1:4" ht="18.75">
+    <row r="210" ht="18.75" spans="1:4">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
     </row>
-    <row r="211" spans="1:4" ht="18.75">
+    <row r="211" ht="18.75" spans="1:4">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
     </row>
-    <row r="212" spans="1:4" ht="18.75">
+    <row r="212" ht="18.75" spans="1:4">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
     </row>
-    <row r="213" spans="1:4" ht="18.75">
+    <row r="213" ht="18.75" spans="1:4">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
     </row>
-    <row r="214" spans="1:4" ht="18.75">
+    <row r="214" ht="18.75" spans="1:4">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
     </row>
-    <row r="215" spans="1:4" ht="18.75">
+    <row r="215" ht="18.75" spans="1:4">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
     </row>
-    <row r="216" spans="1:4" ht="18.75">
+    <row r="216" ht="18.75" spans="1:4">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
     </row>
-    <row r="217" spans="1:4" ht="18.75">
+    <row r="217" ht="18.75" spans="1:4">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
     </row>
-    <row r="218" spans="1:4" ht="18.75">
+    <row r="218" ht="18.75" spans="1:4">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
     </row>
-    <row r="219" spans="1:4" ht="18.75">
+    <row r="219" ht="18.75" spans="1:4">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
     </row>
-    <row r="220" spans="1:4" ht="18.75">
+    <row r="220" ht="18.75" spans="1:4">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
     </row>
-    <row r="221" spans="1:4" ht="18.75">
+    <row r="221" ht="18.75" spans="1:4">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
     </row>
-    <row r="222" spans="1:4" ht="18.75">
+    <row r="222" ht="18.75" spans="1:4">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
     </row>
-    <row r="223" spans="1:4" ht="18.75">
+    <row r="223" ht="18.75" spans="1:4">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
     </row>
-    <row r="224" spans="1:4" ht="18.75">
+    <row r="224" ht="18.75" spans="1:4">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
     </row>
-    <row r="225" spans="1:4" ht="18.75">
+    <row r="225" ht="18.75" spans="1:4">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
     </row>
-    <row r="226" spans="1:4" ht="18.75">
+    <row r="226" ht="18.75" spans="1:4">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
     </row>
-    <row r="227" spans="1:4" ht="18.75">
+    <row r="227" ht="18.75" spans="1:4">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
     </row>
-    <row r="228" spans="1:4" ht="18.75">
+    <row r="228" ht="18.75" spans="1:4">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
     </row>
-    <row r="229" spans="1:4" ht="18.75">
+    <row r="229" ht="18.75" spans="1:4">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
     </row>
-    <row r="230" spans="1:4" ht="18.75">
+    <row r="230" ht="18.75" spans="1:4">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
     </row>
-    <row r="231" spans="1:4" ht="18.75">
+    <row r="231" ht="18.75" spans="1:4">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
     </row>
-    <row r="232" spans="1:4" ht="18.75">
+    <row r="232" ht="18.75" spans="1:4">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
     </row>
-    <row r="233" spans="1:4" ht="18.75">
+    <row r="233" ht="18.75" spans="1:4">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
     </row>
-    <row r="234" spans="1:4" ht="18.75">
+    <row r="234" ht="18.75" spans="1:4">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
     </row>
-    <row r="235" spans="1:4" ht="18.75">
+    <row r="235" ht="18.75" spans="1:4">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
     </row>
-    <row r="236" spans="1:4" ht="18.75">
+    <row r="236" ht="18.75" spans="1:4">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
     </row>
-    <row r="237" spans="1:4" ht="18.75">
+    <row r="237" ht="18.75" spans="1:4">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
     </row>
-    <row r="238" spans="1:4" ht="18.75">
+    <row r="238" ht="18.75" spans="1:4">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
     </row>
-    <row r="239" spans="1:4" ht="18.75">
+    <row r="239" ht="18.75" spans="1:4">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
     </row>
-    <row r="240" spans="1:4" ht="18.75">
+    <row r="240" ht="18.75" spans="1:4">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
     </row>
-    <row r="241" spans="1:4" ht="18.75">
+    <row r="241" ht="18.75" spans="1:4">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
     </row>
-    <row r="242" spans="1:4" ht="18.75">
+    <row r="242" ht="18.75" spans="1:4">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
     </row>
-    <row r="243" spans="1:4" ht="18.75">
+    <row r="243" ht="18.75" spans="1:4">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
     </row>
-    <row r="244" spans="1:4" ht="18.75">
+    <row r="244" ht="18.75" spans="1:4">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
     </row>
-    <row r="245" spans="1:4" ht="18.75">
+    <row r="245" ht="18.75" spans="1:4">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
     </row>
-    <row r="246" spans="1:4" ht="18.75">
+    <row r="246" ht="18.75" spans="1:4">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
     </row>
-    <row r="247" spans="1:4" ht="18.75">
+    <row r="247" ht="18.75" spans="1:4">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
     </row>
-    <row r="248" spans="1:4" ht="18.75">
+    <row r="248" ht="18.75" spans="1:4">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
     </row>
-    <row r="249" spans="1:4" ht="18.75">
+    <row r="249" ht="18.75" spans="1:4">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
     </row>
-    <row r="250" spans="1:4" ht="18.75">
+    <row r="250" ht="18.75" spans="1:4">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
     </row>
-    <row r="251" spans="1:4" ht="18.75">
+    <row r="251" ht="18.75" spans="1:4">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
     </row>
-    <row r="252" spans="1:4" ht="18.75">
+    <row r="252" ht="18.75" spans="1:4">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
     </row>
-    <row r="253" spans="1:4" ht="18.75">
+    <row r="253" ht="18.75" spans="1:4">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
     </row>
-    <row r="254" spans="1:4" ht="18.75">
+    <row r="254" ht="18.75" spans="1:4">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
     </row>
-    <row r="255" spans="1:4" ht="18.75">
+    <row r="255" ht="18.75" spans="1:4">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
     </row>
-    <row r="256" spans="1:4" ht="18.75">
+    <row r="256" ht="18.75" spans="1:4">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
     </row>
-    <row r="257" spans="1:4" ht="18.75">
+    <row r="257" ht="18.75" spans="1:4">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
     </row>
-    <row r="258" spans="1:4" ht="18.75">
+    <row r="258" ht="18.75" spans="1:4">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
     </row>
-    <row r="259" spans="1:4" ht="18.75">
+    <row r="259" ht="18.75" spans="1:4">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
     </row>
-    <row r="260" spans="1:4" ht="18.75">
+    <row r="260" ht="18.75" spans="1:4">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
     </row>
-    <row r="261" spans="1:4" ht="18.75">
+    <row r="261" ht="18.75" spans="1:4">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
     </row>
-    <row r="262" spans="1:4" ht="18.75">
+    <row r="262" ht="18.75" spans="1:4">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
     </row>
-    <row r="263" spans="1:4" ht="18.75">
+    <row r="263" ht="18.75" spans="1:4">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
     </row>
-    <row r="264" spans="1:4" ht="18.75">
+    <row r="264" ht="18.75" spans="1:4">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
     </row>
-    <row r="265" spans="1:4" ht="18.75">
+    <row r="265" ht="18.75" spans="1:4">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
     </row>
-    <row r="266" spans="1:4" ht="18.75">
+    <row r="266" ht="18.75" spans="1:4">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
     </row>
-    <row r="267" spans="1:4" ht="18.75">
+    <row r="267" ht="18.75" spans="1:4">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
     </row>
-    <row r="268" spans="1:4" ht="18.75">
+    <row r="268" ht="18.75" spans="1:4">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
     </row>
-    <row r="269" spans="1:4" ht="18.75">
+    <row r="269" ht="18.75" spans="1:4">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
       <c r="D269" s="5"/>
     </row>
-    <row r="270" spans="1:4" ht="18.75">
+    <row r="270" ht="18.75" spans="1:4">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
       <c r="D270" s="5"/>
     </row>
-    <row r="271" spans="1:4" ht="18.75">
+    <row r="271" ht="18.75" spans="1:4">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
     </row>
-    <row r="272" spans="1:4" ht="18.75">
+    <row r="272" ht="18.75" spans="1:4">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
     </row>
-    <row r="273" spans="1:4" ht="18.75">
+    <row r="273" ht="18.75" spans="1:4">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
     </row>
-    <row r="274" spans="1:4" ht="18.75">
+    <row r="274" ht="18.75" spans="1:4">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
     </row>
-    <row r="275" spans="1:4" ht="18.75">
+    <row r="275" ht="18.75" spans="1:4">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
     </row>
-    <row r="276" spans="1:4" ht="18.75">
+    <row r="276" ht="18.75" spans="1:4">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
     </row>
-    <row r="277" spans="1:4" ht="18.75">
+    <row r="277" ht="18.75" spans="1:4">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
     </row>
-    <row r="278" spans="1:4" ht="18.75">
+    <row r="278" ht="18.75" spans="1:4">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
     </row>
-    <row r="279" spans="1:4" ht="18.75">
+    <row r="279" ht="18.75" spans="1:4">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
     </row>
-    <row r="280" spans="1:4" ht="18.75">
+    <row r="280" ht="18.75" spans="1:4">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
     </row>
-    <row r="281" spans="1:4" ht="18.75">
+    <row r="281" ht="18.75" spans="1:4">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
     </row>
-    <row r="282" spans="1:4" ht="18.75">
+    <row r="282" ht="18.75" spans="1:4">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
     </row>
-    <row r="283" spans="1:4" ht="18.75">
+    <row r="283" ht="18.75" spans="1:4">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
     </row>
-    <row r="284" spans="1:4" ht="18.75">
+    <row r="284" ht="18.75" spans="1:4">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
     </row>
-    <row r="285" spans="1:4" ht="18.75">
+    <row r="285" ht="18.75" spans="1:4">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
     </row>
-    <row r="286" spans="1:4" ht="18.75">
+    <row r="286" ht="18.75" spans="1:4">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/单词.xlsx
+++ b/单词.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221">
   <si>
     <t>不认识</t>
   </si>
@@ -625,6 +625,60 @@
   </si>
   <si>
     <t>choke</t>
+  </si>
+  <si>
+    <t>capable</t>
+  </si>
+  <si>
+    <t>appeal</t>
+  </si>
+  <si>
+    <t>careless</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>swallow</t>
+  </si>
+  <si>
+    <t>consult</t>
+  </si>
+  <si>
+    <t>preservation</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>predict</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>entertainment</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>transaction</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>insist</t>
+  </si>
+  <si>
+    <t>distract</t>
+  </si>
+  <si>
+    <t>subdivision</t>
   </si>
 </sst>
 </file>
@@ -633,11 +687,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -682,37 +736,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,27 +745,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,6 +780,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -771,9 +819,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -787,28 +842,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -817,16 +850,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -841,19 +888,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,61 +906,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,37 +930,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,7 +948,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,25 +996,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,7 +1044,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,6 +1097,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1066,6 +1143,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1093,207 +1194,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1664,8 +1711,8 @@
   <sheetPr/>
   <dimension ref="A1:D286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="D185" sqref="D185"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="C218" sqref="C218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3046,11 +3093,10 @@
         <v>182</v>
       </c>
     </row>
-    <row r="181" ht="18.75" spans="1:4">
-      <c r="A181" s="5" t="s">
+    <row r="181" ht="18.75" spans="2:4">
+      <c r="B181" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
     </row>
@@ -3126,13 +3172,12 @@
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
     </row>
-    <row r="191" ht="18.75" spans="1:4">
-      <c r="A191" s="5" t="s">
-        <v>193</v>
-      </c>
+    <row r="191" ht="18.75" spans="2:4">
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
-      <c r="D191" s="5"/>
+      <c r="D191" s="5" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="192" ht="18.75" spans="1:4">
       <c r="A192" s="5" t="s">
@@ -3190,11 +3235,10 @@
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
     </row>
-    <row r="199" ht="18.75" spans="1:4">
-      <c r="A199" s="5" t="s">
+    <row r="199" ht="18.75" spans="2:4">
+      <c r="B199" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
     </row>
@@ -3206,111 +3250,137 @@
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
     </row>
-    <row r="201" ht="18.75" spans="1:4">
-      <c r="A201" s="5"/>
-      <c r="B201" s="5"/>
+    <row r="201" ht="18.75" spans="2:4">
+      <c r="B201" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
     </row>
     <row r="202" ht="18.75" spans="1:4">
-      <c r="A202" s="5"/>
+      <c r="A202" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
     </row>
-    <row r="203" ht="18.75" spans="1:4">
-      <c r="A203" s="5"/>
+    <row r="203" ht="18.75" spans="2:4">
       <c r="B203" s="5"/>
-      <c r="C203" s="5"/>
+      <c r="C203" s="5" t="s">
+        <v>205</v>
+      </c>
       <c r="D203" s="5"/>
     </row>
-    <row r="204" ht="18.75" spans="1:4">
-      <c r="A204" s="5"/>
+    <row r="204" ht="18.75" spans="2:4">
       <c r="B204" s="5"/>
-      <c r="C204" s="5"/>
+      <c r="C204" s="5" t="s">
+        <v>206</v>
+      </c>
       <c r="D204" s="5"/>
     </row>
-    <row r="205" ht="18.75" spans="1:4">
-      <c r="A205" s="5"/>
+    <row r="205" ht="18.75" spans="2:4">
       <c r="B205" s="5"/>
-      <c r="C205" s="5"/>
+      <c r="C205" s="5" t="s">
+        <v>207</v>
+      </c>
       <c r="D205" s="5"/>
     </row>
     <row r="206" ht="18.75" spans="1:4">
-      <c r="A206" s="5"/>
+      <c r="A206" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
     </row>
     <row r="207" ht="18.75" spans="1:4">
-      <c r="A207" s="5"/>
+      <c r="A207" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
     </row>
-    <row r="208" ht="18.75" spans="1:4">
-      <c r="A208" s="5"/>
+    <row r="208" ht="18.75" spans="2:4">
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
-      <c r="D208" s="5"/>
-    </row>
-    <row r="209" ht="18.75" spans="1:4">
-      <c r="A209" s="5"/>
+      <c r="D208" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="209" ht="18.75" spans="2:4">
       <c r="B209" s="5"/>
-      <c r="C209" s="5"/>
+      <c r="C209" s="5" t="s">
+        <v>211</v>
+      </c>
       <c r="D209" s="5"/>
     </row>
-    <row r="210" ht="18.75" spans="1:4">
-      <c r="A210" s="5"/>
+    <row r="210" ht="18.75" spans="2:4">
       <c r="B210" s="5"/>
-      <c r="C210" s="5"/>
+      <c r="C210" s="5" t="s">
+        <v>212</v>
+      </c>
       <c r="D210" s="5"/>
     </row>
-    <row r="211" ht="18.75" spans="1:4">
-      <c r="A211" s="5"/>
+    <row r="211" ht="18.75" spans="2:4">
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
-      <c r="D211" s="5"/>
+      <c r="D211" s="5" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="212" ht="18.75" spans="1:4">
-      <c r="A212" s="5"/>
+      <c r="A212" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
     </row>
-    <row r="213" ht="18.75" spans="1:4">
-      <c r="A213" s="5"/>
-      <c r="B213" s="5"/>
+    <row r="213" ht="18.75" spans="2:4">
+      <c r="B213" s="5" t="s">
+        <v>215</v>
+      </c>
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
     </row>
     <row r="214" ht="18.75" spans="1:4">
-      <c r="A214" s="5"/>
+      <c r="A214" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
     </row>
     <row r="215" ht="18.75" spans="1:4">
-      <c r="A215" s="5"/>
+      <c r="A215" s="5" t="s">
+        <v>217</v>
+      </c>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
     </row>
     <row r="216" ht="18.75" spans="1:4">
-      <c r="A216" s="5"/>
+      <c r="A216" s="5" t="s">
+        <v>218</v>
+      </c>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
     </row>
     <row r="217" ht="18.75" spans="1:4">
-      <c r="A217" s="5"/>
+      <c r="A217" s="5" t="s">
+        <v>219</v>
+      </c>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
     </row>
-    <row r="218" ht="18.75" spans="1:4">
-      <c r="A218" s="5"/>
-      <c r="B218" s="5"/>
+    <row r="218" ht="18.75" spans="2:4">
+      <c r="B218" s="5" t="s">
+        <v>220</v>
+      </c>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
     </row>
